--- a/Collected-Data/Standing/Subject_1.xlsx
+++ b/Collected-Data/Standing/Subject_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mithil\IIT GN\Year_3\Semester 2\Machine Learning\assignment-1-ml-doofenshmirtz-evil-inc\Collected-Data\Standing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5618B1-EA23-43FD-A87D-CFD6740B9771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA27B6D-8EB3-47DC-A873-A6B1AF335154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E502"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="A501" sqref="A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8882,23 +8882,6 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A502">
-        <v>20.327774999999999</v>
-      </c>
-      <c r="B502">
-        <v>-2.4500000000000001E-2</v>
-      </c>
-      <c r="C502">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D502">
-        <v>-8.9700000000000002E-2</v>
-      </c>
-      <c r="E502">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
